--- a/实施周数据-李登林组/12月/51周/实施周数据-李登林组-姚亚文.xlsx
+++ b/实施周数据-李登林组/12月/51周/实施周数据-李登林组-姚亚文.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -467,6 +467,14 @@
   </si>
   <si>
     <t>田菁</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧品牌</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -863,7 +871,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -902,12 +910,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -970,6 +972,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,26 +1016,8 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1303,299 +1308,309 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.109375" style="22" customWidth="1"/>
-    <col min="3" max="6" width="12.109375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="22" customWidth="1"/>
-    <col min="8" max="11" width="12.109375" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="22"/>
+    <col min="1" max="2" width="10.109375" style="20" customWidth="1"/>
+    <col min="3" max="6" width="12.109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="20" customWidth="1"/>
+    <col min="8" max="11" width="12.109375" style="20" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="40" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
-    </row>
-    <row r="3" spans="1:14" s="21" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:14" s="19" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:14" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="25">
         <v>10</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="25">
         <v>43</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <v>0</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
         <v>0</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="25">
         <v>0</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="25">
         <v>52</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="25">
         <v>131</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="25">
         <v>0</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="25">
         <v>0</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="33">
         <v>0</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="29" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="32">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="30">
         <v>24</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="32">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="30">
         <v>32</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="33">
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="31">
         <v>11</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="32">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="30">
         <v>22</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="K15" s="22" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="K15" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
@@ -1604,16 +1619,6 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1628,7 +1633,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1694,6 +1699,9 @@
       <c r="O1" s="13" t="s">
         <v>33</v>
       </c>
+      <c r="P1" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1708,40 +1716,42 @@
       <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="4">
         <v>76108838</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="36" t="s">
+      <c r="J2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="34" t="s">
         <v>41</v>
       </c>
       <c r="O2" s="4">
         <v>13817021191</v>
       </c>
-      <c r="P2" s="14"/>
+      <c r="P2" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1756,40 +1766,42 @@
       <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="4">
         <v>76115505</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="36" t="s">
+      <c r="J3" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="34" t="s">
         <v>65</v>
       </c>
       <c r="O3" s="4">
         <v>18321380032</v>
       </c>
-      <c r="P3" s="14"/>
+      <c r="P3" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1804,40 +1816,42 @@
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="4">
         <v>76109773</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="36" t="s">
+      <c r="J4" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="34" t="s">
         <v>62</v>
       </c>
       <c r="O4" s="4">
         <v>13167085607</v>
       </c>
-      <c r="P4" s="14"/>
+      <c r="P4" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1852,40 +1866,42 @@
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="4">
         <v>76110330</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="36" t="s">
+      <c r="J5" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="34" t="s">
         <v>65</v>
       </c>
       <c r="O5" s="4">
         <v>18721804893</v>
       </c>
-      <c r="P5" s="14"/>
+      <c r="P5" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1900,40 +1916,42 @@
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="7">
         <v>76113070</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="36" t="s">
+      <c r="J6" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L6" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="34" t="s">
         <v>65</v>
       </c>
       <c r="O6" s="4">
         <v>18917797287</v>
       </c>
-      <c r="P6" s="14"/>
+      <c r="P6" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1948,13 +1966,13 @@
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="7">
@@ -1963,25 +1981,27 @@
       <c r="I7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="36" t="s">
+      <c r="J7" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L7" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="34" t="s">
         <v>65</v>
       </c>
       <c r="O7" s="4">
         <v>18621996525</v>
       </c>
-      <c r="P7" s="14"/>
+      <c r="P7" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1996,13 +2016,13 @@
       <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="7">
@@ -2011,25 +2031,27 @@
       <c r="I8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="36" t="s">
+      <c r="J8" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L8" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="N8" s="34" t="s">
         <v>65</v>
       </c>
       <c r="O8" s="4">
         <v>15519116773</v>
       </c>
-      <c r="P8" s="14"/>
+      <c r="P8" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -2044,13 +2066,13 @@
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="7">
@@ -2059,25 +2081,27 @@
       <c r="I9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="36" t="s">
+      <c r="J9" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L9" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="34" t="s">
         <v>65</v>
       </c>
       <c r="O9" s="4">
         <v>18121049699</v>
       </c>
-      <c r="P9" s="14"/>
+      <c r="P9" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -2092,13 +2116,13 @@
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="7">
@@ -2107,25 +2131,27 @@
       <c r="I10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="36" t="s">
+      <c r="J10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L10" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="36" t="s">
+      <c r="N10" s="34" t="s">
         <v>41</v>
       </c>
       <c r="O10" s="4">
         <v>13131590528</v>
       </c>
-      <c r="P10" s="14"/>
+      <c r="P10" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2140,13 +2166,13 @@
       <c r="D11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="7">
@@ -2155,25 +2181,27 @@
       <c r="I11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="36" t="s">
+      <c r="J11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M11" s="36" t="s">
+      <c r="M11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="36" t="s">
+      <c r="N11" s="34" t="s">
         <v>65</v>
       </c>
       <c r="O11" s="4">
         <v>13916987083</v>
       </c>
-      <c r="P11" s="14"/>
+      <c r="P11" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2188,13 +2216,13 @@
       <c r="D12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="7">
@@ -2203,25 +2231,27 @@
       <c r="I12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="36" t="s">
+      <c r="J12" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L12" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M12" s="36" t="s">
+      <c r="M12" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="34" t="s">
         <v>65</v>
       </c>
       <c r="O12" s="4">
         <v>13761600897</v>
       </c>
-      <c r="P12" s="14"/>
+      <c r="P12" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -2236,40 +2266,42 @@
       <c r="D13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="8">
         <v>76115308</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="36" t="s">
+      <c r="J13" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L13" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M13" s="36" t="s">
+      <c r="M13" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="36" t="s">
+      <c r="N13" s="34" t="s">
         <v>41</v>
       </c>
       <c r="O13" s="8">
         <v>13661486611</v>
       </c>
-      <c r="P13" s="15"/>
+      <c r="P13" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2284,40 +2316,42 @@
       <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="8">
         <v>76110329</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="36" t="s">
+      <c r="J14" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L14" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M14" s="36" t="s">
+      <c r="M14" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="N14" s="34" t="s">
         <v>62</v>
       </c>
       <c r="O14" s="8">
         <v>13167085607</v>
       </c>
-      <c r="P14" s="15"/>
+      <c r="P14" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2332,40 +2366,42 @@
       <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H15" s="4">
         <v>76110336</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="36" t="s">
+      <c r="J15" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L15" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M15" s="36" t="s">
+      <c r="M15" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="N15" s="36" t="s">
+      <c r="N15" s="34" t="s">
         <v>62</v>
       </c>
       <c r="O15" s="4">
         <v>13167085607</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -2380,40 +2416,42 @@
       <c r="D16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="4">
         <v>76110331</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="36" t="s">
+      <c r="J16" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L16" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M16" s="36" t="s">
+      <c r="M16" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="N16" s="36" t="s">
+      <c r="N16" s="34" t="s">
         <v>65</v>
       </c>
       <c r="O16" s="4">
         <v>13816039081</v>
       </c>
-      <c r="P16" s="4"/>
+      <c r="P16" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2428,40 +2466,42 @@
       <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="4">
         <v>76116993</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="36" t="s">
+      <c r="J17" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L17" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M17" s="36" t="s">
+      <c r="M17" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="N17" s="34" t="s">
         <v>41</v>
       </c>
       <c r="O17" s="4">
         <v>18321380032</v>
       </c>
-      <c r="P17" s="4"/>
+      <c r="P17" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -2476,40 +2516,42 @@
       <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H18" s="4">
         <v>76115909</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="36" t="s">
+      <c r="J18" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L18" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M18" s="36" t="s">
+      <c r="M18" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="36" t="s">
+      <c r="N18" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="14">
         <v>13917038070</v>
       </c>
-      <c r="P18" s="4"/>
+      <c r="P18" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -2524,40 +2566,42 @@
       <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H19" s="4">
         <v>76112119</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="36" t="s">
+      <c r="J19" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L19" s="4">
         <v>17771797122</v>
       </c>
-      <c r="M19" s="36" t="s">
+      <c r="M19" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="N19" s="36" t="s">
+      <c r="N19" s="34" t="s">
         <v>41</v>
       </c>
       <c r="O19" s="4">
         <v>13636549287</v>
       </c>
-      <c r="P19" s="4"/>
+      <c r="P19" s="54" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -2569,12 +2613,12 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="4"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="17"/>
+      <c r="O21" s="15"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2587,12 +2631,12 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="4"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="17"/>
+      <c r="O22" s="15"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2605,8 +2649,8 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="4"/>
       <c r="M23" s="12"/>
       <c r="N23" s="10"/>
@@ -2622,13 +2666,13 @@
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="18"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="36"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="19"/>
+      <c r="M24" s="17"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="18"/>
+      <c r="O24" s="16"/>
       <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2640,7 +2684,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="16"/>
       <c r="J25" s="11"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -2658,7 +2702,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="18"/>
+      <c r="I26" s="16"/>
       <c r="J26" s="11"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
@@ -2676,7 +2720,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="18"/>
+      <c r="I27" s="16"/>
       <c r="J27" s="11"/>
       <c r="K27" s="12"/>
       <c r="L27" s="11"/>
@@ -2694,7 +2738,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="18"/>
+      <c r="I28" s="16"/>
       <c r="J28" s="11"/>
       <c r="K28" s="12"/>
       <c r="L28" s="11"/>
@@ -2712,7 +2756,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="18"/>
+      <c r="I29" s="16"/>
       <c r="J29" s="11"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -2730,7 +2774,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="18"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="11"/>
       <c r="K30" s="12"/>
       <c r="L30" s="11"/>
@@ -2748,13 +2792,13 @@
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-      <c r="I31" s="18"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="11"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
-      <c r="M31" s="20"/>
+      <c r="M31" s="18"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="20"/>
+      <c r="O31" s="18"/>
       <c r="P31" s="11"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2766,11 +2810,11 @@
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
-      <c r="I32" s="18"/>
+      <c r="I32" s="16"/>
       <c r="J32" s="11"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="19"/>
+      <c r="M32" s="17"/>
       <c r="N32" s="10"/>
       <c r="O32" s="12"/>
       <c r="P32" s="11"/>
@@ -2806,9 +2850,9 @@
       <c r="J34" s="11"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="19"/>
+      <c r="M34" s="17"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="18"/>
+      <c r="O34" s="16"/>
       <c r="P34" s="11"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2824,9 +2868,9 @@
       <c r="J35" s="11"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="19"/>
+      <c r="M35" s="17"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="19"/>
+      <c r="O35" s="17"/>
       <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2856,7 +2900,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="18"/>
+      <c r="I37" s="16"/>
       <c r="J37" s="11"/>
       <c r="K37" s="12"/>
       <c r="L37" s="11"/>
@@ -2874,7 +2918,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="18"/>
+      <c r="I38" s="16"/>
       <c r="J38" s="11"/>
       <c r="K38" s="12"/>
       <c r="L38" s="11"/>
@@ -2892,7 +2936,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="18"/>
+      <c r="I39" s="16"/>
       <c r="J39" s="11"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11"/>
@@ -2910,13 +2954,13 @@
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
-      <c r="I40" s="18"/>
+      <c r="I40" s="16"/>
       <c r="J40" s="11"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11"/>
-      <c r="M40" s="19"/>
+      <c r="M40" s="17"/>
       <c r="N40" s="10"/>
-      <c r="O40" s="19"/>
+      <c r="O40" s="17"/>
       <c r="P40" s="11"/>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2928,7 +2972,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
-      <c r="I41" s="18"/>
+      <c r="I41" s="16"/>
       <c r="J41" s="11"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11"/>
@@ -2946,7 +2990,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
-      <c r="I42" s="18"/>
+      <c r="I42" s="16"/>
       <c r="J42" s="11"/>
       <c r="K42" s="12"/>
       <c r="L42" s="11"/>
@@ -2964,7 +3008,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
-      <c r="I43" s="18"/>
+      <c r="I43" s="16"/>
       <c r="J43" s="11"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11"/>
@@ -2982,7 +3026,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
-      <c r="I44" s="18"/>
+      <c r="I44" s="16"/>
       <c r="J44" s="11"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
